--- a/data/pca/factorExposure/factorExposure_2018-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02040347016451718</v>
+        <v>0.02245272909716671</v>
       </c>
       <c r="C2">
-        <v>0.02450143219583253</v>
+        <v>-0.01717271733502748</v>
       </c>
       <c r="D2">
-        <v>-0.01320970430309057</v>
+        <v>0.02417745463479639</v>
       </c>
       <c r="E2">
-        <v>-0.02973843925183202</v>
+        <v>0.01371719845905259</v>
       </c>
       <c r="F2">
-        <v>0.111912373289339</v>
+        <v>-0.01127804847369572</v>
       </c>
       <c r="G2">
-        <v>-0.05985118394978391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05058635097256638</v>
+      </c>
+      <c r="H2">
+        <v>-0.0461077270606693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09760114199251493</v>
+        <v>0.08875952356740975</v>
       </c>
       <c r="C3">
-        <v>-0.007878503086084097</v>
+        <v>0.0165138409673013</v>
       </c>
       <c r="D3">
-        <v>-0.09069895762992636</v>
+        <v>0.04546057857136209</v>
       </c>
       <c r="E3">
-        <v>-0.08222793722850538</v>
+        <v>0.002587302839040527</v>
       </c>
       <c r="F3">
-        <v>0.375135636556486</v>
+        <v>-0.007601182785635963</v>
       </c>
       <c r="G3">
-        <v>-0.1583608025333532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1891822848188371</v>
+      </c>
+      <c r="H3">
+        <v>-0.1642552737315537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03972520572589687</v>
+        <v>0.04948406469283335</v>
       </c>
       <c r="C4">
-        <v>0.007854903824896245</v>
+        <v>-0.001847193270474122</v>
       </c>
       <c r="D4">
-        <v>0.01748057662655634</v>
+        <v>0.05113168057013739</v>
       </c>
       <c r="E4">
-        <v>0.0393173314896945</v>
+        <v>-0.02125979917890616</v>
       </c>
       <c r="F4">
-        <v>0.08234929546350497</v>
+        <v>-0.05560008914739172</v>
       </c>
       <c r="G4">
-        <v>-0.04491963324607112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03085600312587996</v>
+      </c>
+      <c r="H4">
+        <v>-0.05176654588927105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02251817533832461</v>
+        <v>0.03036152837119324</v>
       </c>
       <c r="C6">
-        <v>0.008777528256037026</v>
+        <v>0.0002142561042480061</v>
       </c>
       <c r="D6">
-        <v>-0.006963848146843811</v>
+        <v>0.05586652672145542</v>
       </c>
       <c r="E6">
-        <v>0.02061022934138419</v>
+        <v>-0.005432184598883828</v>
       </c>
       <c r="F6">
-        <v>0.026088120446295</v>
+        <v>-0.03248304326508023</v>
       </c>
       <c r="G6">
-        <v>0.003750747372421401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.009019041498088565</v>
+      </c>
+      <c r="H6">
+        <v>-0.06073342288123603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02142712275039088</v>
+        <v>0.02406824873350802</v>
       </c>
       <c r="C7">
-        <v>0.007095494177397224</v>
+        <v>-0.000809925888737804</v>
       </c>
       <c r="D7">
-        <v>-0.01431399927483366</v>
+        <v>0.02972565036313706</v>
       </c>
       <c r="E7">
-        <v>0.02099306443033663</v>
+        <v>-0.04309891500098799</v>
       </c>
       <c r="F7">
-        <v>0.05100161188227283</v>
+        <v>-0.008855131221679623</v>
       </c>
       <c r="G7">
-        <v>-0.0610172859412039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02145075323871469</v>
+      </c>
+      <c r="H7">
+        <v>-0.03647727334076913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01869046825854057</v>
+        <v>0.007922374070780024</v>
       </c>
       <c r="C8">
-        <v>0.01177232682881829</v>
+        <v>0.00278251153619604</v>
       </c>
       <c r="D8">
-        <v>-0.004892781985488041</v>
+        <v>0.01215087512472402</v>
       </c>
       <c r="E8">
-        <v>0.02921384738411941</v>
+        <v>-0.007834561679828024</v>
       </c>
       <c r="F8">
-        <v>0.1024814579266802</v>
+        <v>-0.02385981762375385</v>
       </c>
       <c r="G8">
-        <v>-0.04679655922271786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0402352386957294</v>
+      </c>
+      <c r="H8">
+        <v>-0.03869832991457067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03373460866505821</v>
+        <v>0.03912395322458245</v>
       </c>
       <c r="C9">
-        <v>0.0101072736367055</v>
+        <v>0.00135504878935443</v>
       </c>
       <c r="D9">
-        <v>0.005276452178338289</v>
+        <v>0.03851465200411114</v>
       </c>
       <c r="E9">
-        <v>0.03351236150784426</v>
+        <v>-0.01059910247005825</v>
       </c>
       <c r="F9">
-        <v>0.08982931550698448</v>
+        <v>-0.03164333229646429</v>
       </c>
       <c r="G9">
-        <v>-0.05420602493226694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04168920006584623</v>
+      </c>
+      <c r="H9">
+        <v>-0.05093775872536888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03294258156389099</v>
+        <v>0.09446171018160586</v>
       </c>
       <c r="C10">
-        <v>-0.0709569786938216</v>
+        <v>0.00988082888695479</v>
       </c>
       <c r="D10">
-        <v>0.06910504316562137</v>
+        <v>-0.1699004624749963</v>
       </c>
       <c r="E10">
-        <v>-0.1254440276464286</v>
+        <v>0.001471419888455568</v>
       </c>
       <c r="F10">
-        <v>0.03927120731312083</v>
+        <v>0.03395478896744544</v>
       </c>
       <c r="G10">
-        <v>0.01199129463789979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03504963655406849</v>
+      </c>
+      <c r="H10">
+        <v>-0.009081968410119877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03319168933517786</v>
+        <v>0.02557071302661363</v>
       </c>
       <c r="C11">
-        <v>0.02358836074456339</v>
+        <v>0.01197255996780286</v>
       </c>
       <c r="D11">
-        <v>-0.01478368021118982</v>
+        <v>0.04476856357942024</v>
       </c>
       <c r="E11">
-        <v>0.02377080846703092</v>
+        <v>0.0007611823048174672</v>
       </c>
       <c r="F11">
-        <v>0.04905238642911146</v>
+        <v>-0.01542736135532566</v>
       </c>
       <c r="G11">
-        <v>-0.02251314118651275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02569069950964981</v>
+      </c>
+      <c r="H11">
+        <v>-0.04661143978508041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04137478525378847</v>
+        <v>0.03024844534567724</v>
       </c>
       <c r="C12">
-        <v>0.02346540397600695</v>
+        <v>0.008750801971438633</v>
       </c>
       <c r="D12">
-        <v>-0.006468118196142542</v>
+        <v>0.04347756857185696</v>
       </c>
       <c r="E12">
-        <v>0.0358699512223933</v>
+        <v>-0.008421228787837102</v>
       </c>
       <c r="F12">
-        <v>0.03402287779473825</v>
+        <v>-0.01814446145250255</v>
       </c>
       <c r="G12">
-        <v>-0.005596662495777775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.00668319424268708</v>
+      </c>
+      <c r="H12">
+        <v>-0.02059539002524019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01498248755422833</v>
+        <v>0.03051382635932747</v>
       </c>
       <c r="C13">
-        <v>0.02184248327536228</v>
+        <v>-0.01220197927461636</v>
       </c>
       <c r="D13">
-        <v>0.001368885663705969</v>
+        <v>0.01459559834259405</v>
       </c>
       <c r="E13">
-        <v>-0.01224141245952434</v>
+        <v>0.008984643210245471</v>
       </c>
       <c r="F13">
-        <v>0.07697859658911767</v>
+        <v>-0.02846700756353419</v>
       </c>
       <c r="G13">
-        <v>-0.03939712194175478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06011069072274687</v>
+      </c>
+      <c r="H13">
+        <v>-0.07199422766908381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01541923729882731</v>
+        <v>0.01908239951812439</v>
       </c>
       <c r="C14">
-        <v>0.001926386933254911</v>
+        <v>-0.0001269458817068663</v>
       </c>
       <c r="D14">
-        <v>0.007124990190139562</v>
+        <v>0.008685126853776625</v>
       </c>
       <c r="E14">
-        <v>0.02823723686091635</v>
+        <v>-0.01485226935588494</v>
       </c>
       <c r="F14">
-        <v>0.06076830972643815</v>
+        <v>-0.01995417507061261</v>
       </c>
       <c r="G14">
-        <v>-0.05666120573650323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03901920616579522</v>
+      </c>
+      <c r="H14">
+        <v>-0.009220717118659483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02630484704467176</v>
+        <v>0.02582414674143843</v>
       </c>
       <c r="C16">
-        <v>0.02647924358266789</v>
+        <v>0.01152707098259461</v>
       </c>
       <c r="D16">
-        <v>-0.01188032418533736</v>
+        <v>0.03741400944635177</v>
       </c>
       <c r="E16">
-        <v>0.01908693315572819</v>
+        <v>-0.002711167657099357</v>
       </c>
       <c r="F16">
-        <v>0.05512831308506447</v>
+        <v>-0.01968158256814396</v>
       </c>
       <c r="G16">
-        <v>-0.02427509572259418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02097411433290717</v>
+      </c>
+      <c r="H16">
+        <v>-0.03513658875660212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04630349388940017</v>
+        <v>0.03786690520711555</v>
       </c>
       <c r="C19">
-        <v>0.01764769516742992</v>
+        <v>0.001882498013156796</v>
       </c>
       <c r="D19">
-        <v>-0.01424660217596507</v>
+        <v>0.03019486523615434</v>
       </c>
       <c r="E19">
-        <v>0.02595054265973922</v>
+        <v>-0.005989694136458262</v>
       </c>
       <c r="F19">
-        <v>0.109859740411195</v>
+        <v>-0.03216151670739328</v>
       </c>
       <c r="G19">
-        <v>-0.03316634248878952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0591689042697497</v>
+      </c>
+      <c r="H19">
+        <v>-0.06905919715907134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001157420600732846</v>
+        <v>0.01412711307037298</v>
       </c>
       <c r="C20">
-        <v>0.008841399137369168</v>
+        <v>-0.004097140421532525</v>
       </c>
       <c r="D20">
-        <v>0.003460356147711496</v>
+        <v>0.01848785075135647</v>
       </c>
       <c r="E20">
-        <v>0.02028994079485428</v>
+        <v>-0.005968809776797488</v>
       </c>
       <c r="F20">
-        <v>0.07886530108221296</v>
+        <v>-0.02395915861484836</v>
       </c>
       <c r="G20">
-        <v>-0.06880491369636438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05015292026505103</v>
+      </c>
+      <c r="H20">
+        <v>-0.02434391727989187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00628282088590705</v>
+        <v>0.01774058753797154</v>
       </c>
       <c r="C21">
-        <v>-0.0165003898592585</v>
+        <v>-0.006611386577823234</v>
       </c>
       <c r="D21">
-        <v>-0.02229879968489717</v>
+        <v>0.01727910505964962</v>
       </c>
       <c r="E21">
-        <v>0.02621818955058544</v>
+        <v>-0.02021998229916159</v>
       </c>
       <c r="F21">
-        <v>0.05170879432388634</v>
+        <v>-0.01458755481358467</v>
       </c>
       <c r="G21">
-        <v>-0.02140717292400159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04891480744247914</v>
+      </c>
+      <c r="H21">
+        <v>-0.04580022419202817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0292619199806015</v>
+        <v>0.02251731545044292</v>
       </c>
       <c r="C24">
-        <v>0.0244076813723695</v>
+        <v>0.005935095610335871</v>
       </c>
       <c r="D24">
-        <v>-0.0003061654795264891</v>
+        <v>0.0391025811384827</v>
       </c>
       <c r="E24">
-        <v>0.007393288493659474</v>
+        <v>-0.0008492045063593308</v>
       </c>
       <c r="F24">
-        <v>0.04567091104575133</v>
+        <v>-0.01458946226270057</v>
       </c>
       <c r="G24">
-        <v>-0.02230335974233893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01646844263628235</v>
+      </c>
+      <c r="H24">
+        <v>-0.04420344611697814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02988185973848148</v>
+        <v>0.03359189287049086</v>
       </c>
       <c r="C25">
-        <v>0.01484570188699286</v>
+        <v>0.003889184957999562</v>
       </c>
       <c r="D25">
-        <v>-0.01535983848757523</v>
+        <v>0.0387598057943319</v>
       </c>
       <c r="E25">
-        <v>0.02534022669402174</v>
+        <v>-0.005044649956747992</v>
       </c>
       <c r="F25">
-        <v>0.05479697549830232</v>
+        <v>-0.02189499934214966</v>
       </c>
       <c r="G25">
-        <v>-0.009340014406067748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02059818498890247</v>
+      </c>
+      <c r="H25">
+        <v>-0.04339796962528944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02217982169799221</v>
+        <v>0.01970618578668655</v>
       </c>
       <c r="C26">
-        <v>0.01262102160523377</v>
+        <v>-0.01752353539100936</v>
       </c>
       <c r="D26">
-        <v>-0.02802418291502095</v>
+        <v>0.005953552888758753</v>
       </c>
       <c r="E26">
-        <v>-0.002088740000500977</v>
+        <v>0.0005559087354330959</v>
       </c>
       <c r="F26">
-        <v>0.06943700606558356</v>
+        <v>-0.00512325466039544</v>
       </c>
       <c r="G26">
-        <v>-0.04451725102422085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03328962265460595</v>
+      </c>
+      <c r="H26">
+        <v>-0.02162052249508942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06068729437906397</v>
+        <v>0.0240767019663976</v>
       </c>
       <c r="C27">
-        <v>0.01982479624456386</v>
+        <v>0.008960998636842871</v>
       </c>
       <c r="D27">
-        <v>0.02753854280849743</v>
+        <v>0.01326928318652246</v>
       </c>
       <c r="E27">
-        <v>0.03584730355027524</v>
+        <v>-0.004244891253100741</v>
       </c>
       <c r="F27">
-        <v>0.06035354194662771</v>
+        <v>-0.01496774684233907</v>
       </c>
       <c r="G27">
-        <v>-0.03880190339846008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01241185247178135</v>
+      </c>
+      <c r="H27">
+        <v>0.001535264516374276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05055991126674227</v>
+        <v>0.1386892617663526</v>
       </c>
       <c r="C28">
-        <v>-0.09188700315935715</v>
+        <v>0.002856862433890512</v>
       </c>
       <c r="D28">
-        <v>0.1047872900602282</v>
+        <v>-0.231208775584597</v>
       </c>
       <c r="E28">
-        <v>-0.1537112212320098</v>
+        <v>-0.00386833541109377</v>
       </c>
       <c r="F28">
-        <v>0.028159727051791</v>
+        <v>0.03151379639192726</v>
       </c>
       <c r="G28">
-        <v>-0.007356118288006725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02410097819169861</v>
+      </c>
+      <c r="H28">
+        <v>0.001617470262560685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01987577869026175</v>
+        <v>0.02243320762785485</v>
       </c>
       <c r="C29">
-        <v>0.001674525149422996</v>
+        <v>0.001258666047727225</v>
       </c>
       <c r="D29">
-        <v>0.008589733913518329</v>
+        <v>0.008300260354032592</v>
       </c>
       <c r="E29">
-        <v>0.03736778880206807</v>
+        <v>-0.01515533150541084</v>
       </c>
       <c r="F29">
-        <v>0.05740861985728449</v>
+        <v>-0.0207921735731086</v>
       </c>
       <c r="G29">
-        <v>-0.04700247815837791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03697278258460761</v>
+      </c>
+      <c r="H29">
+        <v>-0.001055508991770844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08617961422927686</v>
+        <v>0.06027803738394984</v>
       </c>
       <c r="C30">
-        <v>0.06041277648639798</v>
+        <v>0.001877552335794116</v>
       </c>
       <c r="D30">
-        <v>-0.0001636651453557119</v>
+        <v>0.08611024596450702</v>
       </c>
       <c r="E30">
-        <v>0.048906739612589</v>
+        <v>0.03022797229999211</v>
       </c>
       <c r="F30">
-        <v>0.111859900188411</v>
+        <v>-0.05908942879323777</v>
       </c>
       <c r="G30">
-        <v>-0.05165573640611186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05213144272839933</v>
+      </c>
+      <c r="H30">
+        <v>-0.07110133063505879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05806233353603578</v>
+        <v>0.05357278410666521</v>
       </c>
       <c r="C31">
-        <v>0.0300321775063095</v>
+        <v>0.01290787716657734</v>
       </c>
       <c r="D31">
-        <v>-0.0111193870790432</v>
+        <v>0.01701725067351726</v>
       </c>
       <c r="E31">
-        <v>0.004412259889426852</v>
+        <v>0.005160330588186462</v>
       </c>
       <c r="F31">
-        <v>0.04252165846899466</v>
+        <v>-0.008954874098250902</v>
       </c>
       <c r="G31">
-        <v>-0.06171817012638812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0144444927919595</v>
+      </c>
+      <c r="H31">
+        <v>-0.003143171794386803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01620416610196751</v>
+        <v>0.01122554396011062</v>
       </c>
       <c r="C32">
-        <v>0.01135241529385244</v>
+        <v>0.01331270360335731</v>
       </c>
       <c r="D32">
-        <v>-0.01584021833425365</v>
+        <v>0.007168412016253484</v>
       </c>
       <c r="E32">
-        <v>0.06288047930999739</v>
+        <v>-0.03043473410612866</v>
       </c>
       <c r="F32">
-        <v>0.08704905463771812</v>
+        <v>-0.04236964534655229</v>
       </c>
       <c r="G32">
-        <v>-0.04316134858539288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02478474477243022</v>
+      </c>
+      <c r="H32">
+        <v>-0.05421665816602154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04626825747133614</v>
+        <v>0.04227417871127297</v>
       </c>
       <c r="C33">
-        <v>0.02621531153121391</v>
+        <v>0.003319186230418987</v>
       </c>
       <c r="D33">
-        <v>-0.04169277393619163</v>
+        <v>0.03458680205702682</v>
       </c>
       <c r="E33">
-        <v>0.02295925945822778</v>
+        <v>0.02227294128126869</v>
       </c>
       <c r="F33">
-        <v>0.08728314450660725</v>
+        <v>-0.008702528588186056</v>
       </c>
       <c r="G33">
-        <v>-0.06232193254782992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04567574894260663</v>
+      </c>
+      <c r="H33">
+        <v>-0.04099176840642225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02866960749874968</v>
+        <v>0.02874090744116005</v>
       </c>
       <c r="C34">
-        <v>0.02659818376162425</v>
+        <v>0.01916505111730299</v>
       </c>
       <c r="D34">
-        <v>-0.00944422769966328</v>
+        <v>0.03711212436457228</v>
       </c>
       <c r="E34">
-        <v>0.02615637932035219</v>
+        <v>-0.009067501692901565</v>
       </c>
       <c r="F34">
-        <v>0.05844405339848113</v>
+        <v>-0.02067535841116153</v>
       </c>
       <c r="G34">
-        <v>-0.01569434095035686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01621898074243336</v>
+      </c>
+      <c r="H34">
+        <v>-0.035842960708429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01456897574852789</v>
+        <v>0.02071236004550657</v>
       </c>
       <c r="C36">
-        <v>0.0004283174591022163</v>
+        <v>-0.004769517186565929</v>
       </c>
       <c r="D36">
-        <v>-7.892402184284313e-05</v>
+        <v>0.001583190768399923</v>
       </c>
       <c r="E36">
-        <v>0.02224959131978632</v>
+        <v>-0.007287732502995039</v>
       </c>
       <c r="F36">
-        <v>0.03752994344827024</v>
+        <v>-0.007336925897053143</v>
       </c>
       <c r="G36">
-        <v>-0.03951748060695916</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01775166020701321</v>
+      </c>
+      <c r="H36">
+        <v>-0.01205299437995005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001442073164882702</v>
+        <v>0.02841990603176079</v>
       </c>
       <c r="C38">
-        <v>-0.0090129802908652</v>
+        <v>0.01773466479803984</v>
       </c>
       <c r="D38">
-        <v>-0.01700238583116535</v>
+        <v>0.01058678653258401</v>
       </c>
       <c r="E38">
-        <v>-0.02998340271767069</v>
+        <v>-0.0003879397939689502</v>
       </c>
       <c r="F38">
-        <v>0.0359920654091298</v>
+        <v>-0.01486405224145366</v>
       </c>
       <c r="G38">
-        <v>-0.01252178245200561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0208985073377471</v>
+      </c>
+      <c r="H38">
+        <v>-0.04185689600259948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03610397689576983</v>
+        <v>0.02509225123673198</v>
       </c>
       <c r="C39">
-        <v>0.04705100838749244</v>
+        <v>0.008470910997880852</v>
       </c>
       <c r="D39">
-        <v>-0.01425756915664031</v>
+        <v>0.08614773506760612</v>
       </c>
       <c r="E39">
-        <v>0.0291241811112992</v>
+        <v>0.0032684281918648</v>
       </c>
       <c r="F39">
-        <v>0.07011460085205255</v>
+        <v>-0.02665739601586981</v>
       </c>
       <c r="G39">
-        <v>-0.02663449330246796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03787579846309105</v>
+      </c>
+      <c r="H39">
+        <v>-0.07200431702321684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0324979506302318</v>
+        <v>0.03324101993793457</v>
       </c>
       <c r="C40">
-        <v>0.07308480298839673</v>
+        <v>0.002403608811765326</v>
       </c>
       <c r="D40">
-        <v>0.001865676139644287</v>
+        <v>0.02633339962297799</v>
       </c>
       <c r="E40">
-        <v>-0.01916563834803624</v>
+        <v>0.02297569667434655</v>
       </c>
       <c r="F40">
-        <v>0.07857163788304425</v>
+        <v>-0.03732273353756872</v>
       </c>
       <c r="G40">
-        <v>-0.05696827128860965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02146732728195248</v>
+      </c>
+      <c r="H40">
+        <v>-0.06684447738961824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002744400547993326</v>
+        <v>0.01073015764449555</v>
       </c>
       <c r="C41">
-        <v>-0.003352973987367254</v>
+        <v>-0.002212668885743685</v>
       </c>
       <c r="D41">
-        <v>-0.00728876191249715</v>
+        <v>-0.01608712798204298</v>
       </c>
       <c r="E41">
-        <v>0.004171104944791878</v>
+        <v>0.001613843968814553</v>
       </c>
       <c r="F41">
-        <v>0.01071981768797088</v>
+        <v>0.001797837376859939</v>
       </c>
       <c r="G41">
-        <v>-0.04781323631122211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004062986945943802</v>
+      </c>
+      <c r="H41">
+        <v>0.007124138635898375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3900729530874464</v>
+        <v>0.1960112588136661</v>
       </c>
       <c r="C42">
-        <v>-0.3311583497038634</v>
+        <v>-0.05943871856004198</v>
       </c>
       <c r="D42">
-        <v>-0.7172959692805656</v>
+        <v>0.2543792788174933</v>
       </c>
       <c r="E42">
-        <v>-0.2562405126480211</v>
+        <v>0.1938026411135877</v>
       </c>
       <c r="F42">
-        <v>-0.3086131761630973</v>
+        <v>0.9124994739895574</v>
       </c>
       <c r="G42">
-        <v>-0.15080714503506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.06994529365391233</v>
+      </c>
+      <c r="H42">
+        <v>0.004033807558064015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-5.979707616748678e-05</v>
+        <v>0.01330184677711791</v>
       </c>
       <c r="C43">
-        <v>-0.006358073562333673</v>
+        <v>-0.002544691350136837</v>
       </c>
       <c r="D43">
-        <v>-0.01337752265971301</v>
+        <v>-0.01626598150777022</v>
       </c>
       <c r="E43">
-        <v>0.003117775513425916</v>
+        <v>0.004437854436132993</v>
       </c>
       <c r="F43">
-        <v>0.02749246785909159</v>
+        <v>0.005268775490462014</v>
       </c>
       <c r="G43">
-        <v>-0.04679855109761531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005396849131227118</v>
+      </c>
+      <c r="H43">
+        <v>-0.006371689956009226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01593139929283768</v>
+        <v>0.02087894450879932</v>
       </c>
       <c r="C44">
-        <v>-0.006196360742665386</v>
+        <v>0.005283374968984842</v>
       </c>
       <c r="D44">
-        <v>-0.01445012301191718</v>
+        <v>0.0307790361772055</v>
       </c>
       <c r="E44">
-        <v>-0.004782404571419412</v>
+        <v>-0.007180570501251949</v>
       </c>
       <c r="F44">
-        <v>0.1120406745141656</v>
+        <v>-0.006967944672400112</v>
       </c>
       <c r="G44">
-        <v>-0.08653823167790074</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0407291842180678</v>
+      </c>
+      <c r="H44">
+        <v>-0.06443467794171857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02039358373209199</v>
+        <v>0.01750888499581435</v>
       </c>
       <c r="C46">
-        <v>0.01760742435733627</v>
+        <v>-0.004206538563580424</v>
       </c>
       <c r="D46">
-        <v>-0.02100432738684956</v>
+        <v>0.01053017348944969</v>
       </c>
       <c r="E46">
-        <v>0.03009593075056728</v>
+        <v>-0.00137081673397831</v>
       </c>
       <c r="F46">
-        <v>0.07208295793492092</v>
+        <v>-0.01657426784117582</v>
       </c>
       <c r="G46">
-        <v>-0.059687245844483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04263363081732394</v>
+      </c>
+      <c r="H46">
+        <v>-0.00473587315245332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09585966922721172</v>
+        <v>0.07749327181775946</v>
       </c>
       <c r="C47">
-        <v>0.03425677473259454</v>
+        <v>0.03014572636943151</v>
       </c>
       <c r="D47">
-        <v>0.005116796436957044</v>
+        <v>0.04031308940397853</v>
       </c>
       <c r="E47">
-        <v>0.02816693320286379</v>
+        <v>0.000672227573895343</v>
       </c>
       <c r="F47">
-        <v>0.02686607450466992</v>
+        <v>-0.01680273635879378</v>
       </c>
       <c r="G47">
-        <v>-0.08014198380202858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0145955268320495</v>
+      </c>
+      <c r="H47">
+        <v>0.02220564711366379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01639384293622526</v>
+        <v>0.02304867197942788</v>
       </c>
       <c r="C48">
-        <v>0.00630575640538384</v>
+        <v>0.006354105352103246</v>
       </c>
       <c r="D48">
-        <v>-0.0157179791440584</v>
+        <v>0.007746476392976535</v>
       </c>
       <c r="E48">
-        <v>0.01732255242364548</v>
+        <v>-0.001315284175502597</v>
       </c>
       <c r="F48">
-        <v>0.04839931215843667</v>
+        <v>-0.0106127252125763</v>
       </c>
       <c r="G48">
-        <v>-0.02569447070172179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02380577235033087</v>
+      </c>
+      <c r="H48">
+        <v>-0.01820604181434695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08621029222564741</v>
+        <v>0.07361483397521899</v>
       </c>
       <c r="C50">
-        <v>0.03430134491601119</v>
+        <v>0.02661423330199144</v>
       </c>
       <c r="D50">
-        <v>-0.0191716779269718</v>
+        <v>0.03882420087438443</v>
       </c>
       <c r="E50">
-        <v>0.03283577339969025</v>
+        <v>-0.01232496929508843</v>
       </c>
       <c r="F50">
-        <v>0.05207213452129121</v>
+        <v>-0.01333090803447824</v>
       </c>
       <c r="G50">
-        <v>-0.04109532144556975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005265258426351219</v>
+      </c>
+      <c r="H50">
+        <v>0.006150388200245141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01701827092077965</v>
+        <v>0.020736557668891</v>
       </c>
       <c r="C51">
-        <v>-0.01617693890773741</v>
+        <v>-0.001302596212222103</v>
       </c>
       <c r="D51">
-        <v>-0.007626980551944555</v>
+        <v>0.000413519677383716</v>
       </c>
       <c r="E51">
-        <v>-0.0211474476681449</v>
+        <v>-0.008735858431158766</v>
       </c>
       <c r="F51">
-        <v>0.1111687400575662</v>
+        <v>-0.0004555589628322657</v>
       </c>
       <c r="G51">
-        <v>-0.04953072501666846</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05465655567913859</v>
+      </c>
+      <c r="H51">
+        <v>-0.05808198023592451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09700955952711861</v>
+        <v>0.09598336932234994</v>
       </c>
       <c r="C53">
-        <v>0.05198928212850355</v>
+        <v>0.03849005231940089</v>
       </c>
       <c r="D53">
-        <v>-0.0008027945629071038</v>
+        <v>0.07359483851906791</v>
       </c>
       <c r="E53">
-        <v>0.04886586614127948</v>
+        <v>-0.0008300428080827284</v>
       </c>
       <c r="F53">
-        <v>-0.03744600297463014</v>
+        <v>-0.03361775498211826</v>
       </c>
       <c r="G53">
-        <v>-0.01678470155135769</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05660247448809269</v>
+      </c>
+      <c r="H53">
+        <v>0.04128735478667354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02007162883630965</v>
+        <v>0.02592518378488824</v>
       </c>
       <c r="C54">
-        <v>0.004214010561957087</v>
+        <v>0.009411402693244442</v>
       </c>
       <c r="D54">
-        <v>0.01429560853805696</v>
+        <v>-0.01167070339043137</v>
       </c>
       <c r="E54">
-        <v>0.03237117808803619</v>
+        <v>-0.009131139204854016</v>
       </c>
       <c r="F54">
-        <v>0.04852444225698042</v>
+        <v>-0.01289272254315654</v>
       </c>
       <c r="G54">
-        <v>-0.06569429128876686</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03767352488785526</v>
+      </c>
+      <c r="H54">
+        <v>0.003543237358061543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1052111338557066</v>
+        <v>0.08047479420693165</v>
       </c>
       <c r="C55">
-        <v>0.02360265933340403</v>
+        <v>0.03414219029879841</v>
       </c>
       <c r="D55">
-        <v>0.01452533082966131</v>
+        <v>0.0696029022364657</v>
       </c>
       <c r="E55">
-        <v>0.07436384024691195</v>
+        <v>-0.008724011985571196</v>
       </c>
       <c r="F55">
-        <v>-0.02586748515457498</v>
+        <v>-0.02745801385869739</v>
       </c>
       <c r="G55">
-        <v>-0.06100311588765899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03240130775349827</v>
+      </c>
+      <c r="H55">
+        <v>0.05457739104834957</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1375659800957517</v>
+        <v>0.1300558143951264</v>
       </c>
       <c r="C56">
-        <v>0.07320956227824825</v>
+        <v>0.05692654982912869</v>
       </c>
       <c r="D56">
-        <v>0.03597181994976682</v>
+        <v>0.08759900110727088</v>
       </c>
       <c r="E56">
-        <v>0.06984680464177144</v>
+        <v>0.0004677974565864474</v>
       </c>
       <c r="F56">
-        <v>-0.06991106866656938</v>
+        <v>-0.05204425272397747</v>
       </c>
       <c r="G56">
-        <v>0.03528178408784505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09386851835494101</v>
+      </c>
+      <c r="H56">
+        <v>0.05914294641956742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04569739871330746</v>
+        <v>0.04335934336140899</v>
       </c>
       <c r="C57">
-        <v>0.007242206695826574</v>
+        <v>-0.007333900727333813</v>
       </c>
       <c r="D57">
-        <v>-0.01566943064966299</v>
+        <v>0.0424373763611481</v>
       </c>
       <c r="E57">
-        <v>-0.01994804394256557</v>
+        <v>0.006670164898488842</v>
       </c>
       <c r="F57">
-        <v>0.06373775858031556</v>
+        <v>-0.0250314018974303</v>
       </c>
       <c r="G57">
-        <v>-0.06417623320933115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05997671622361487</v>
+      </c>
+      <c r="H57">
+        <v>-0.0423377097274753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2300836373145412</v>
+        <v>0.1657354336243689</v>
       </c>
       <c r="C58">
-        <v>0.08759364431606265</v>
+        <v>0.05541248043710977</v>
       </c>
       <c r="D58">
-        <v>-0.07592017895791059</v>
+        <v>0.1557312502336547</v>
       </c>
       <c r="E58">
-        <v>0.08100828553842693</v>
+        <v>0.1673706065405708</v>
       </c>
       <c r="F58">
-        <v>0.4061340914632127</v>
+        <v>-0.03990351296420942</v>
       </c>
       <c r="G58">
-        <v>-0.1124101535562863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8027053066599237</v>
+      </c>
+      <c r="H58">
+        <v>0.4241268816325606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05009638524810604</v>
+        <v>0.1524558290819235</v>
       </c>
       <c r="C59">
-        <v>-0.0446414041817986</v>
+        <v>0.01236452415142752</v>
       </c>
       <c r="D59">
-        <v>0.1083069994852862</v>
+        <v>-0.2301789348891964</v>
       </c>
       <c r="E59">
-        <v>-0.1503112478130025</v>
+        <v>0.01487470639947417</v>
       </c>
       <c r="F59">
-        <v>0.05348070901619392</v>
+        <v>0.006830170720439709</v>
       </c>
       <c r="G59">
-        <v>0.01765547047345063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02771832276414665</v>
+      </c>
+      <c r="H59">
+        <v>-0.03409058336313273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.155989066686432</v>
+        <v>0.1827609417244117</v>
       </c>
       <c r="C60">
-        <v>0.07675981444682158</v>
+        <v>0.03288158950056801</v>
       </c>
       <c r="D60">
-        <v>-0.04358039058891499</v>
+        <v>0.02429146339993015</v>
       </c>
       <c r="E60">
-        <v>-0.1166155044732337</v>
+        <v>0.04764488448116468</v>
       </c>
       <c r="F60">
-        <v>0.1662901583525569</v>
+        <v>-0.05305565392337047</v>
       </c>
       <c r="G60">
-        <v>0.3076199838443109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04207796616267664</v>
+      </c>
+      <c r="H60">
+        <v>-0.3689809947154893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02136856514954457</v>
+        <v>0.02741089054293174</v>
       </c>
       <c r="C61">
-        <v>0.017567147994125</v>
+        <v>0.01109263090240855</v>
       </c>
       <c r="D61">
-        <v>-0.0132582130773541</v>
+        <v>0.05149354708410888</v>
       </c>
       <c r="E61">
-        <v>0.01468511203655398</v>
+        <v>-0.004144196697817365</v>
       </c>
       <c r="F61">
-        <v>0.03921257218496935</v>
+        <v>-0.02526760275166097</v>
       </c>
       <c r="G61">
-        <v>-0.0203754432269521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02157921115661119</v>
+      </c>
+      <c r="H61">
+        <v>-0.05606981063692848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01686898610777147</v>
+        <v>0.01460967976414016</v>
       </c>
       <c r="C63">
-        <v>0.006206215196604358</v>
+        <v>-0.001117146245926778</v>
       </c>
       <c r="D63">
-        <v>-0.01896644165353223</v>
+        <v>0.01925455498494176</v>
       </c>
       <c r="E63">
-        <v>0.03060897515721873</v>
+        <v>-0.004821509482497394</v>
       </c>
       <c r="F63">
-        <v>0.02154906326328894</v>
+        <v>-0.01448233072519721</v>
       </c>
       <c r="G63">
-        <v>-0.06330234600162907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0153383343983822</v>
+      </c>
+      <c r="H63">
+        <v>-0.008391642656356092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03457004071808178</v>
+        <v>0.0427418506997303</v>
       </c>
       <c r="C64">
-        <v>0.003266042298704347</v>
+        <v>0.01119614699626126</v>
       </c>
       <c r="D64">
-        <v>0.006644147296840408</v>
+        <v>0.0344348829671572</v>
       </c>
       <c r="E64">
-        <v>0.05311085695403085</v>
+        <v>-0.01121207767447113</v>
       </c>
       <c r="F64">
-        <v>0.03623048528607169</v>
+        <v>-0.007397636834498476</v>
       </c>
       <c r="G64">
-        <v>-0.05447991235058911</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-9.762357824510526e-05</v>
+      </c>
+      <c r="H64">
+        <v>-0.03721283529665574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02432568012424324</v>
+        <v>0.03760207946735865</v>
       </c>
       <c r="C65">
-        <v>0.01075879656468607</v>
+        <v>0.0012117968104953</v>
       </c>
       <c r="D65">
-        <v>-0.008094566542584457</v>
+        <v>0.06578910738754595</v>
       </c>
       <c r="E65">
-        <v>0.02171247840496205</v>
+        <v>-0.008229211958627627</v>
       </c>
       <c r="F65">
-        <v>0.0219051002185322</v>
+        <v>-0.03641909410711822</v>
       </c>
       <c r="G65">
-        <v>0.009020861462512401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001547929476943555</v>
+      </c>
+      <c r="H65">
+        <v>-0.06999056884323626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03345555336096681</v>
+        <v>0.03339106939117455</v>
       </c>
       <c r="C66">
-        <v>0.055568308556865</v>
+        <v>0.01498156885590863</v>
       </c>
       <c r="D66">
-        <v>-0.01822937523187672</v>
+        <v>0.1049499228633234</v>
       </c>
       <c r="E66">
-        <v>0.03009291340653075</v>
+        <v>0.005385816858852626</v>
       </c>
       <c r="F66">
-        <v>0.0562248592915668</v>
+        <v>-0.0455505987534811</v>
       </c>
       <c r="G66">
-        <v>-0.01597354701875535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03067008715837178</v>
+      </c>
+      <c r="H66">
+        <v>-0.0774204715531701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0118350347846341</v>
+        <v>0.04795838135145934</v>
       </c>
       <c r="C67">
-        <v>-0.0004722974859798003</v>
+        <v>0.02016391100246271</v>
       </c>
       <c r="D67">
-        <v>-0.01288919589222314</v>
+        <v>0.01031528077134822</v>
       </c>
       <c r="E67">
-        <v>-0.03697727320660913</v>
+        <v>0.004023494866376189</v>
       </c>
       <c r="F67">
-        <v>0.01781493032184293</v>
+        <v>-0.02296344786589694</v>
       </c>
       <c r="G67">
-        <v>-8.482812997560945e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.006590071849777889</v>
+      </c>
+      <c r="H67">
+        <v>-0.04240674880896252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06823659774495804</v>
+        <v>0.1440636318753734</v>
       </c>
       <c r="C68">
-        <v>-0.07229202449837284</v>
+        <v>-0.01123380239021536</v>
       </c>
       <c r="D68">
-        <v>0.1327222015410403</v>
+        <v>-0.2406134438777983</v>
       </c>
       <c r="E68">
-        <v>-0.1427132101833918</v>
+        <v>0.009277837568053069</v>
       </c>
       <c r="F68">
-        <v>0.0474161098419953</v>
+        <v>0.03890693544557183</v>
       </c>
       <c r="G68">
-        <v>0.05624212316570218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03584750017808499</v>
+      </c>
+      <c r="H68">
+        <v>0.03826293209946622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06880111038424398</v>
+        <v>0.06267523410743282</v>
       </c>
       <c r="C69">
-        <v>0.04278768875872899</v>
+        <v>0.02974580190044254</v>
       </c>
       <c r="D69">
-        <v>0.008767918446598138</v>
+        <v>0.03894557999670879</v>
       </c>
       <c r="E69">
-        <v>0.01280321034481327</v>
+        <v>0.001721556247519751</v>
       </c>
       <c r="F69">
-        <v>0.01826837157327907</v>
+        <v>-0.02698895653790588</v>
       </c>
       <c r="G69">
-        <v>-0.08056753829439463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01908940727645185</v>
+      </c>
+      <c r="H69">
+        <v>-0.004649877308173378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07268564936176734</v>
+        <v>0.1385839457792307</v>
       </c>
       <c r="C71">
-        <v>-0.08036465071469749</v>
+        <v>0.0003725694688033582</v>
       </c>
       <c r="D71">
-        <v>0.1137781113335359</v>
+        <v>-0.2088667398641963</v>
       </c>
       <c r="E71">
-        <v>-0.204811901539189</v>
+        <v>0.01580869315109745</v>
       </c>
       <c r="F71">
-        <v>0.03699563243932735</v>
+        <v>0.04500658357583568</v>
       </c>
       <c r="G71">
-        <v>-0.006038493245776942</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03679381608745637</v>
+      </c>
+      <c r="H71">
+        <v>0.01853375761821481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1132501918181194</v>
+        <v>0.08397231776940117</v>
       </c>
       <c r="C72">
-        <v>0.0733031303923728</v>
+        <v>0.04098390751040451</v>
       </c>
       <c r="D72">
-        <v>0.0327671282265334</v>
+        <v>0.07435584678808911</v>
       </c>
       <c r="E72">
-        <v>0.01497619432508894</v>
+        <v>0.01438306426105528</v>
       </c>
       <c r="F72">
-        <v>0.1299440195886969</v>
+        <v>-0.07486916645738631</v>
       </c>
       <c r="G72">
-        <v>0.08398475999437841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03114894657986052</v>
+      </c>
+      <c r="H72">
+        <v>-0.1399086914997464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2339850863000542</v>
+        <v>0.2501214720845756</v>
       </c>
       <c r="C73">
-        <v>0.08626799677949436</v>
+        <v>0.04669616602354465</v>
       </c>
       <c r="D73">
-        <v>-0.05029193169473454</v>
+        <v>0.0845934576219257</v>
       </c>
       <c r="E73">
-        <v>-0.2093099919703129</v>
+        <v>0.08321890222932614</v>
       </c>
       <c r="F73">
-        <v>0.2234472313569533</v>
+        <v>-0.05708779415425629</v>
       </c>
       <c r="G73">
-        <v>0.4368503348138685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05912576262349924</v>
+      </c>
+      <c r="H73">
+        <v>-0.4885707542810898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1393107240825689</v>
+        <v>0.1257352458213013</v>
       </c>
       <c r="C74">
-        <v>0.03021384359265805</v>
+        <v>0.05575774556658838</v>
       </c>
       <c r="D74">
-        <v>0.02125865768539452</v>
+        <v>0.09663744030316511</v>
       </c>
       <c r="E74">
-        <v>0.04104693296274969</v>
+        <v>-0.001532018352759335</v>
       </c>
       <c r="F74">
-        <v>-0.06561100537218086</v>
+        <v>-0.03867309214729536</v>
       </c>
       <c r="G74">
-        <v>0.02392831087192347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07793542239846139</v>
+      </c>
+      <c r="H74">
+        <v>0.03200940744546834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2261972262613898</v>
+        <v>0.2340321924500056</v>
       </c>
       <c r="C75">
-        <v>0.1140360724864022</v>
+        <v>0.1033459338061754</v>
       </c>
       <c r="D75">
-        <v>0.07502177842229985</v>
+        <v>0.1446766686765849</v>
       </c>
       <c r="E75">
-        <v>0.1099967790038478</v>
+        <v>0.01714661893172361</v>
       </c>
       <c r="F75">
-        <v>-0.09619717701932388</v>
+        <v>-0.09929210348741131</v>
       </c>
       <c r="G75">
-        <v>0.009060541404174382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.16010549812033</v>
+      </c>
+      <c r="H75">
+        <v>0.1372544532614491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2735082946442786</v>
+        <v>0.2070870145772107</v>
       </c>
       <c r="C76">
-        <v>0.1037192877689912</v>
+        <v>0.09630670975143828</v>
       </c>
       <c r="D76">
-        <v>0.1320977217226713</v>
+        <v>0.1374217620113699</v>
       </c>
       <c r="E76">
-        <v>0.1503442955713118</v>
+        <v>-0.03053677245584809</v>
       </c>
       <c r="F76">
-        <v>-0.1434628736655363</v>
+        <v>-0.09491511175263238</v>
       </c>
       <c r="G76">
-        <v>0.02732744591500387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1576611471388639</v>
+      </c>
+      <c r="H76">
+        <v>0.1339994549913223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.128255880018348</v>
+        <v>0.07757885260727659</v>
       </c>
       <c r="C77">
-        <v>0.02963599585977147</v>
+        <v>0.01473973341493329</v>
       </c>
       <c r="D77">
-        <v>-0.09826850062754355</v>
+        <v>0.06860365036955596</v>
       </c>
       <c r="E77">
-        <v>0.04343677047175726</v>
+        <v>0.008234769673413371</v>
       </c>
       <c r="F77">
-        <v>0.1728109707616443</v>
+        <v>0.002987818670381945</v>
       </c>
       <c r="G77">
-        <v>-0.188537793274414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0886294545498391</v>
+      </c>
+      <c r="H77">
+        <v>-0.009103748407677442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07443653954569018</v>
+        <v>0.04719603836064095</v>
       </c>
       <c r="C78">
-        <v>0.03909325805105122</v>
+        <v>0.01514036362843251</v>
       </c>
       <c r="D78">
-        <v>-0.04176053828729804</v>
+        <v>0.05898211694475181</v>
       </c>
       <c r="E78">
-        <v>0.06876633286135313</v>
+        <v>-0.003969943985109127</v>
       </c>
       <c r="F78">
-        <v>0.1120067507342048</v>
+        <v>-0.03162339768385349</v>
       </c>
       <c r="G78">
-        <v>-0.02823951806100267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06032057672736361</v>
+      </c>
+      <c r="H78">
+        <v>-0.07140986691148629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1624373751042251</v>
+        <v>0.1442744962921767</v>
       </c>
       <c r="C80">
-        <v>-0.7951056491563835</v>
+        <v>0.03662099261813052</v>
       </c>
       <c r="D80">
-        <v>0.1786422062955757</v>
+        <v>0.06108860815972196</v>
       </c>
       <c r="E80">
-        <v>0.4851016649997589</v>
+        <v>-0.9499102794054668</v>
       </c>
       <c r="F80">
-        <v>0.1302945594034509</v>
+        <v>0.1752622735021631</v>
       </c>
       <c r="G80">
-        <v>0.1521468016040268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1336056387169617</v>
+      </c>
+      <c r="H80">
+        <v>0.002668149642256684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1711157378599013</v>
+        <v>0.1550194010104028</v>
       </c>
       <c r="C81">
-        <v>0.08206416543468228</v>
+        <v>0.06717939413858426</v>
       </c>
       <c r="D81">
-        <v>0.08534244967238383</v>
+        <v>0.09019477090658642</v>
       </c>
       <c r="E81">
-        <v>0.08486532289237753</v>
+        <v>-0.005882465263375279</v>
       </c>
       <c r="F81">
-        <v>-0.1174548280608469</v>
+        <v>-0.0647279422539114</v>
       </c>
       <c r="G81">
-        <v>0.03765504972124686</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1086218006273997</v>
+      </c>
+      <c r="H81">
+        <v>0.08806474411451895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03931081305109076</v>
+        <v>0.03595887323182295</v>
       </c>
       <c r="C83">
-        <v>0.02308873670098294</v>
+        <v>0.007525753298112026</v>
       </c>
       <c r="D83">
-        <v>-0.03120561160951261</v>
+        <v>0.02259078721728273</v>
       </c>
       <c r="E83">
-        <v>0.0002285996204498874</v>
+        <v>0.00657622320649826</v>
       </c>
       <c r="F83">
-        <v>0.05591802668435731</v>
+        <v>-0.0149578095601289</v>
       </c>
       <c r="G83">
-        <v>-0.03777164623892715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04578624560889204</v>
+      </c>
+      <c r="H83">
+        <v>-0.03699867485522521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2497412387069438</v>
+        <v>0.2251440460973562</v>
       </c>
       <c r="C85">
-        <v>0.1057940224312739</v>
+        <v>0.0883624406678501</v>
       </c>
       <c r="D85">
-        <v>0.08908236895290106</v>
+        <v>0.149022185923056</v>
       </c>
       <c r="E85">
-        <v>0.1118387277974966</v>
+        <v>0.01070466091937933</v>
       </c>
       <c r="F85">
-        <v>-0.09319857636118614</v>
+        <v>-0.08488601958025337</v>
       </c>
       <c r="G85">
-        <v>-0.02602614250123892</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1709920064481515</v>
+      </c>
+      <c r="H85">
+        <v>0.09935566427835243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006229545294449533</v>
+        <v>0.02772624450719865</v>
       </c>
       <c r="C86">
-        <v>0.004478600882685195</v>
+        <v>0.00377145946476223</v>
       </c>
       <c r="D86">
-        <v>-0.03220671022923746</v>
+        <v>0.03025539302182505</v>
       </c>
       <c r="E86">
-        <v>0.03456022352745063</v>
+        <v>0.003059992680140822</v>
       </c>
       <c r="F86">
-        <v>0.07325364425637824</v>
+        <v>-0.003132774301215564</v>
       </c>
       <c r="G86">
-        <v>-0.02578427213630772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07818761454288199</v>
+      </c>
+      <c r="H86">
+        <v>-0.09137051616118004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03879837198784571</v>
+        <v>0.03060441940345512</v>
       </c>
       <c r="C87">
-        <v>-0.005597584201366527</v>
+        <v>0.005082414125722036</v>
       </c>
       <c r="D87">
-        <v>-0.01718732387292917</v>
+        <v>0.0443462845152685</v>
       </c>
       <c r="E87">
-        <v>0.009766221893490848</v>
+        <v>-0.008763384259222629</v>
       </c>
       <c r="F87">
-        <v>0.1178304746590025</v>
+        <v>-0.01749185300158891</v>
       </c>
       <c r="G87">
-        <v>-0.04805015096386951</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08018466206154999</v>
+      </c>
+      <c r="H87">
+        <v>-0.07484819146996137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.006187763853131687</v>
+        <v>0.03841655606895946</v>
       </c>
       <c r="C88">
-        <v>-0.007576498301339415</v>
+        <v>-0.01068642328767518</v>
       </c>
       <c r="D88">
-        <v>0.01094328129416578</v>
+        <v>0.01514704800823866</v>
       </c>
       <c r="E88">
-        <v>0.01423992787064196</v>
+        <v>-0.01017408015987436</v>
       </c>
       <c r="F88">
-        <v>-0.000459622610544775</v>
+        <v>-0.01473445254676707</v>
       </c>
       <c r="G88">
-        <v>-0.05322290327912778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.00397162424931397</v>
+      </c>
+      <c r="H88">
+        <v>-0.02118498863098736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09059027966338881</v>
+        <v>0.2359843990930981</v>
       </c>
       <c r="C89">
-        <v>-0.09928197068172467</v>
+        <v>-0.002301136393439814</v>
       </c>
       <c r="D89">
-        <v>0.1695045564946548</v>
+        <v>-0.3657171420686468</v>
       </c>
       <c r="E89">
-        <v>-0.2586457806398472</v>
+        <v>0.02401482765058012</v>
       </c>
       <c r="F89">
-        <v>0.06620723772327536</v>
+        <v>0.03106857703636707</v>
       </c>
       <c r="G89">
-        <v>-0.01653338660855426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001316835119473763</v>
+      </c>
+      <c r="H89">
+        <v>-0.01451964872381576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08633250861570547</v>
+        <v>0.190294912804659</v>
       </c>
       <c r="C90">
-        <v>-0.1491950833082817</v>
+        <v>-0.003482419925534014</v>
       </c>
       <c r="D90">
-        <v>0.2109432625623661</v>
+        <v>-0.3247417516433536</v>
       </c>
       <c r="E90">
-        <v>-0.2508650898855324</v>
+        <v>0.01625213347878384</v>
       </c>
       <c r="F90">
-        <v>0.02427012373887432</v>
+        <v>0.05727386867027542</v>
       </c>
       <c r="G90">
-        <v>-0.023089312388785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.007598047934106407</v>
+      </c>
+      <c r="H90">
+        <v>0.04075050430141973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3050326221580117</v>
+        <v>0.2369310257257709</v>
       </c>
       <c r="C91">
-        <v>0.1298126897765861</v>
+        <v>0.1011555359762027</v>
       </c>
       <c r="D91">
-        <v>0.08593911524914907</v>
+        <v>0.1285127213540568</v>
       </c>
       <c r="E91">
-        <v>0.1167500581038764</v>
+        <v>0.01647707333114214</v>
       </c>
       <c r="F91">
-        <v>-0.2268229997151236</v>
+        <v>-0.08262250883405678</v>
       </c>
       <c r="G91">
-        <v>0.04418927089193952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1904625818821125</v>
+      </c>
+      <c r="H91">
+        <v>0.1750591064154086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.171970127662343</v>
+        <v>0.241822490028638</v>
       </c>
       <c r="C92">
-        <v>-0.08513926801850376</v>
+        <v>0.06377855735634877</v>
       </c>
       <c r="D92">
-        <v>0.366684247939637</v>
+        <v>-0.2629828610710601</v>
       </c>
       <c r="E92">
-        <v>-0.2513768940844878</v>
+        <v>0.005393203704143029</v>
       </c>
       <c r="F92">
-        <v>-0.1103113423471337</v>
+        <v>-0.006528387148905183</v>
       </c>
       <c r="G92">
-        <v>-0.5256826489019218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.002261441411367521</v>
+      </c>
+      <c r="H92">
+        <v>0.1373719261520095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09186352736643937</v>
+        <v>0.213679106746833</v>
       </c>
       <c r="C93">
-        <v>-0.1503251180055084</v>
+        <v>0.006192777287286423</v>
       </c>
       <c r="D93">
-        <v>0.2454344496061714</v>
+        <v>-0.3411698281935978</v>
       </c>
       <c r="E93">
-        <v>-0.3645588890850881</v>
+        <v>0.03688281483774211</v>
       </c>
       <c r="F93">
-        <v>-0.01928075063198477</v>
+        <v>0.06080508243921673</v>
       </c>
       <c r="G93">
-        <v>0.06360733634644052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.001243531896433368</v>
+      </c>
+      <c r="H93">
+        <v>-0.01291519564097857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3029412340049167</v>
+        <v>0.2604540853085907</v>
       </c>
       <c r="C94">
-        <v>0.1866805901800131</v>
+        <v>0.09041993582852198</v>
       </c>
       <c r="D94">
-        <v>0.1710977955823087</v>
+        <v>0.1225746014847715</v>
       </c>
       <c r="E94">
-        <v>0.1297172721652265</v>
+        <v>0.03263981930761886</v>
       </c>
       <c r="F94">
-        <v>-0.1819422819022778</v>
+        <v>-0.131050926168725</v>
       </c>
       <c r="G94">
-        <v>0.05076466666237656</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1857285292149812</v>
+      </c>
+      <c r="H94">
+        <v>0.2155409043108802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05952542149942376</v>
+        <v>0.06144172780444606</v>
       </c>
       <c r="C95">
-        <v>0.06889545752466976</v>
+        <v>0.03566686790997989</v>
       </c>
       <c r="D95">
-        <v>-0.06978804858389222</v>
+        <v>0.08587321924851955</v>
       </c>
       <c r="E95">
-        <v>0.05962312152534567</v>
+        <v>0.0786243189216253</v>
       </c>
       <c r="F95">
-        <v>0.0118278705096834</v>
+        <v>-0.007855587597718618</v>
       </c>
       <c r="G95">
-        <v>-0.1788216720142486</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04973157276687371</v>
+      </c>
+      <c r="H95">
+        <v>-0.04189336954731687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1767898744232195</v>
+        <v>0.1881098152943578</v>
       </c>
       <c r="C98">
-        <v>0.02309666744942757</v>
+        <v>0.0649229343892925</v>
       </c>
       <c r="D98">
-        <v>-0.04523409324397415</v>
+        <v>0.03973472116945177</v>
       </c>
       <c r="E98">
-        <v>-0.1385845481184384</v>
+        <v>0.04826635743995845</v>
       </c>
       <c r="F98">
-        <v>0.1211971856088381</v>
+        <v>-0.02015908782214117</v>
       </c>
       <c r="G98">
-        <v>0.3552700800670107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07847940798901479</v>
+      </c>
+      <c r="H98">
+        <v>-0.3439164411502402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006376050030918259</v>
+        <v>0.01624822938792532</v>
       </c>
       <c r="C101">
-        <v>0.01489017183643909</v>
+        <v>-9.948541006430327e-05</v>
       </c>
       <c r="D101">
-        <v>-0.01096142392605058</v>
+        <v>0.01085363892228198</v>
       </c>
       <c r="E101">
-        <v>0.06897548194074507</v>
+        <v>-0.007494441134180307</v>
       </c>
       <c r="F101">
-        <v>0.1786370057545918</v>
+        <v>-0.02908832686176336</v>
       </c>
       <c r="G101">
-        <v>-0.1522294043363069</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1022668987192853</v>
+      </c>
+      <c r="H101">
+        <v>0.02987691247648824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1149595462324855</v>
+        <v>0.1085273323804919</v>
       </c>
       <c r="C102">
-        <v>0.05550930139362235</v>
+        <v>0.03525311640967631</v>
       </c>
       <c r="D102">
-        <v>0.02391607617569611</v>
+        <v>0.0729453181290564</v>
       </c>
       <c r="E102">
-        <v>0.08079568437780872</v>
+        <v>0.002672073641440166</v>
       </c>
       <c r="F102">
-        <v>-0.09455442645880473</v>
+        <v>-0.04399721201720109</v>
       </c>
       <c r="G102">
-        <v>0.009729538419957828</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09650153669870663</v>
+      </c>
+      <c r="H102">
+        <v>0.06766117695442468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02259040450072743</v>
+        <v>0.01755165872149075</v>
       </c>
       <c r="C103">
-        <v>0.02118337565368361</v>
+        <v>0.006854732497778891</v>
       </c>
       <c r="D103">
-        <v>-0.002313063872703782</v>
+        <v>0.01467068676192352</v>
       </c>
       <c r="E103">
-        <v>0.02605520594905781</v>
+        <v>-0.009744195248572573</v>
       </c>
       <c r="F103">
-        <v>0.004829112331663308</v>
+        <v>-0.00961390343215679</v>
       </c>
       <c r="G103">
-        <v>-0.01330027783225573</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.001333145629817436</v>
+      </c>
+      <c r="H103">
+        <v>0.0139757772266542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2272549508752791</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9534870967188895</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.09625221927890602</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02275947928328425</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1315695556200371</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03570130668462976</v>
+      </c>
+      <c r="H104">
+        <v>0.04922070130166101</v>
       </c>
     </row>
   </sheetData>
